--- a/assets/slides/acct3210/S5/E3.xlsx
+++ b/assets/slides/acct3210/S5/E3.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shamussiothrun/ArthurHowardMorris.github.io/assets/slides/acct3210/S5/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ahmlaoibhtighe/ArthurHowardMorris.github.io/assets/slides/acct3210/S5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B9BACF6F-F94B-AD4A-BA6C-7F8A1FFED87D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE637689-A228-4F41-96C0-597AFB27806C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25640" yWindow="600" windowWidth="25500" windowHeight="42500" xr2:uid="{6689D7D3-F6F6-4444-AA4E-A5CAAF8C66C4}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20940" xr2:uid="{6689D7D3-F6F6-4444-AA4E-A5CAAF8C66C4}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="E3 blank" sheetId="2" r:id="rId1"/>
+    <sheet name="E3" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
   <si>
     <t>volume</t>
   </si>
@@ -78,7 +79,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -97,6 +98,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -110,10 +117,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -132,9 +140,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -172,7 +180,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -278,7 +286,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -420,17 +428,84 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDB92C89-6332-BE43-B21D-7D8915529B81}">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70837DE8-9884-DD45-BDC7-5B3DBF3CDBE1}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -502,20 +577,20 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B8">
+      <c r="B8" s="3">
         <f>12*B2+4*C2</f>
         <v>16</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="3">
         <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B9">
+      <c r="B9" s="3">
         <f>9*B2+6*C2</f>
         <v>15</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="3">
         <v>40</v>
       </c>
     </row>

--- a/assets/slides/acct3210/S5/E3.xlsx
+++ b/assets/slides/acct3210/S5/E3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ahmlaoibhtighe/ArthurHowardMorris.github.io/assets/slides/acct3210/S5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE637689-A228-4F41-96C0-597AFB27806C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67ABB6C4-E738-3141-82FF-DD0C2D9CB90C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20940" xr2:uid="{6689D7D3-F6F6-4444-AA4E-A5CAAF8C66C4}"/>
   </bookViews>
@@ -438,7 +438,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDB92C89-6332-BE43-B21D-7D8915529B81}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>

--- a/assets/slides/acct3210/S5/E3.xlsx
+++ b/assets/slides/acct3210/S5/E3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ahmlaoibhtighe/ArthurHowardMorris.github.io/assets/slides/acct3210/S5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67ABB6C4-E738-3141-82FF-DD0C2D9CB90C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36E1CFD6-F1B2-D547-8EEB-F98518B6402F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20940" xr2:uid="{6689D7D3-F6F6-4444-AA4E-A5CAAF8C66C4}"/>
   </bookViews>
@@ -16,6 +16,40 @@
     <sheet name="E3 blank" sheetId="2" r:id="rId1"/>
     <sheet name="E3" sheetId="1" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">'E3 blank'!$B$2:$C$2</definedName>
+    <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_lhs1" localSheetId="0" hidden="1">'E3 blank'!$B$8</definedName>
+    <definedName name="solver_lhs2" localSheetId="0" hidden="1">'E3 blank'!$B$9</definedName>
+    <definedName name="solver_lin" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">'E3 blank'!$B$5</definedName>
+    <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel2" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rhs1" localSheetId="0" hidden="1">'E3 blank'!$C$8</definedName>
+    <definedName name="solver_rhs2" localSheetId="0" hidden="1">'E3 blank'!$C$9</definedName>
+    <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="0" hidden="1">2</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
   <si>
     <t>volume</t>
   </si>
@@ -64,6 +98,27 @@
   </si>
   <si>
     <t>banquets</t>
+  </si>
+  <si>
+    <t>Step 1: Choice Variables</t>
+  </si>
+  <si>
+    <t>Prep food</t>
+  </si>
+  <si>
+    <t>Setup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Step 2: objective function </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Step 3: constraints </t>
+  </si>
+  <si>
+    <t>Step 4: solve</t>
+  </si>
+  <si>
+    <t>Value of Constraint</t>
   </si>
 </sst>
 </file>
@@ -436,65 +491,118 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDB92C89-6332-BE43-B21D-7D8915529B81}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>8</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B2" s="1">
+        <v>4.1666666666666661</v>
+      </c>
+      <c r="C2" s="1">
+        <v>13.75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B3">
+        <v>800</v>
+      </c>
+      <c r="C3">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <f>B3*B2</f>
+        <v>3333.333333333333</v>
+      </c>
+      <c r="C4">
+        <f>C3*C2</f>
+        <v>7218.75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B5" s="2">
+        <f>SUM(B4:C4)</f>
+        <v>10552.083333333332</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="3">
+        <f>12*B2+4*C2</f>
+        <v>105</v>
+      </c>
+      <c r="C8" s="3">
+        <f>35*3</f>
+        <v>105</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="3">
+        <f>9*B2+6*C2</f>
+        <v>120</v>
+      </c>
+      <c r="C9" s="3">
+        <f>40*3</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/assets/slides/acct3210/S5/E3.xlsx
+++ b/assets/slides/acct3210/S5/E3.xlsx
@@ -1,54 +1,119 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10201"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ahmlaoibhtighe/ArthurHowardMorris.github.io/assets/slides/acct3210/S5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36E1CFD6-F1B2-D547-8EEB-F98518B6402F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{985E4CAC-23B9-7F46-A278-EBA604AE33A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20940" xr2:uid="{6689D7D3-F6F6-4444-AA4E-A5CAAF8C66C4}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20940" activeTab="2" xr2:uid="{6689D7D3-F6F6-4444-AA4E-A5CAAF8C66C4}"/>
   </bookViews>
   <sheets>
     <sheet name="E3 blank" sheetId="2" r:id="rId1"/>
-    <sheet name="E3" sheetId="1" r:id="rId2"/>
+    <sheet name="E3 filled in" sheetId="4" r:id="rId2"/>
+    <sheet name="E3 solved" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="solver_adj" localSheetId="0" hidden="1">'E3 blank'!$B$2:$C$2</definedName>
+    <definedName name="solver_adj" localSheetId="1" hidden="1">'E3 filled in'!$B$2:$C$2</definedName>
+    <definedName name="solver_adj" localSheetId="2" hidden="1">'E3 solved'!$B$2:$C$2</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_lhs1" localSheetId="0" hidden="1">'E3 blank'!$B$8</definedName>
+    <definedName name="solver_lhs1" localSheetId="1" hidden="1">'E3 filled in'!$B$8</definedName>
+    <definedName name="solver_lhs1" localSheetId="2" hidden="1">'E3 solved'!$B$8</definedName>
     <definedName name="solver_lhs2" localSheetId="0" hidden="1">'E3 blank'!$B$9</definedName>
+    <definedName name="solver_lhs2" localSheetId="1" hidden="1">'E3 filled in'!$B$9</definedName>
+    <definedName name="solver_lhs2" localSheetId="2" hidden="1">'E3 solved'!$B$9</definedName>
     <definedName name="solver_lin" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_lin" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_lin" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="2" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="2" hidden="1">0.075</definedName>
     <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_num" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_num" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_opt" localSheetId="0" hidden="1">'E3 blank'!$B$5</definedName>
+    <definedName name="solver_opt" localSheetId="1" hidden="1">'E3 filled in'!$B$5</definedName>
+    <definedName name="solver_opt" localSheetId="2" hidden="1">'E3 solved'!$B$5</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="2" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rel2" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel2" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rel2" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rhs1" localSheetId="0" hidden="1">'E3 blank'!$C$8</definedName>
+    <definedName name="solver_rhs1" localSheetId="1" hidden="1">'E3 filled in'!$C$8</definedName>
+    <definedName name="solver_rhs1" localSheetId="2" hidden="1">'E3 solved'!$C$8</definedName>
     <definedName name="solver_rhs2" localSheetId="0" hidden="1">'E3 blank'!$C$9</definedName>
+    <definedName name="solver_rhs2" localSheetId="1" hidden="1">'E3 filled in'!$C$9</definedName>
+    <definedName name="solver_rhs2" localSheetId="2" hidden="1">'E3 solved'!$C$9</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="1" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="2" hidden="1">100</definedName>
     <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="1" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="2" hidden="1">0.01</definedName>
     <definedName name="solver_typ" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_ver" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_ver" localSheetId="2" hidden="1">2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -71,7 +136,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="19">
   <si>
     <t>volume</t>
   </si>
@@ -119,6 +184,15 @@
   </si>
   <si>
     <t>Value of Constraint</t>
+  </si>
+  <si>
+    <t>&lt;-- "By Changing Cells"</t>
+  </si>
+  <si>
+    <t>&lt;-- Objective</t>
+  </si>
+  <si>
+    <t>&lt;-- "By Changing Cells" (put in a starting point for the solver)</t>
   </si>
 </sst>
 </file>
@@ -493,8 +567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDB92C89-6332-BE43-B21D-7D8915529B81}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -514,45 +588,24 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1">
-        <v>4.1666666666666661</v>
-      </c>
-      <c r="C2" s="1">
-        <v>13.75</v>
-      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>800</v>
-      </c>
-      <c r="C3">
-        <v>525</v>
-      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
-        <f>B3*B2</f>
-        <v>3333.333333333333</v>
-      </c>
-      <c r="C4">
-        <f>C3*C2</f>
-        <v>7218.75</v>
-      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2">
-        <f>SUM(B4:C4)</f>
-        <v>10552.083333333332</v>
-      </c>
+      <c r="B5" s="2"/>
       <c r="D5" t="s">
         <v>12</v>
       </c>
@@ -574,14 +627,8 @@
       <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="3">
-        <f>12*B2+4*C2</f>
-        <v>105</v>
-      </c>
-      <c r="C8" s="3">
-        <f>35*3</f>
-        <v>105</v>
-      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
       <c r="D8" t="s">
         <v>13</v>
       </c>
@@ -590,14 +637,8 @@
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="3">
-        <f>9*B2+6*C2</f>
-        <v>120</v>
-      </c>
-      <c r="C9" s="3">
-        <f>40*3</f>
-        <v>120</v>
-      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D10" t="s">
@@ -610,16 +651,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70837DE8-9884-DD45-BDC7-5B3DBF3CDBE1}">
-  <dimension ref="A1:C9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F40470F-BE93-F146-807C-9D3BB8768501}">
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>8</v>
       </c>
@@ -627,7 +668,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -637,8 +678,11 @@
       <c r="C2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -649,7 +693,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -662,7 +706,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -670,13 +714,16 @@
         <f>SUM(B4:C4)</f>
         <v>1325</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>5</v>
       </c>
@@ -684,7 +731,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8" s="3">
         <f>12*B2+4*C2</f>
         <v>16</v>
@@ -693,10 +740,114 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" s="3">
         <f>9*B2+6*C2</f>
         <v>15</v>
+      </c>
+      <c r="C9" s="3">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70837DE8-9884-DD45-BDC7-5B3DBF3CDBE1}">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1.3888888888888893</v>
+      </c>
+      <c r="C2" s="1">
+        <v>4.5833333333333321</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>800</v>
+      </c>
+      <c r="C3">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <f>B2*B3</f>
+        <v>1111.1111111111113</v>
+      </c>
+      <c r="C4">
+        <f>C2*C3</f>
+        <v>2406.2499999999995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2">
+        <f>SUM(B4:C4)</f>
+        <v>3517.3611111111109</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B8" s="3">
+        <f>12*B2+4*C2</f>
+        <v>35</v>
+      </c>
+      <c r="C8" s="3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B9" s="3">
+        <f>9*B2+6*C2</f>
+        <v>40</v>
       </c>
       <c r="C9" s="3">
         <v>40</v>
